--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,142 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -799,72 +812,84 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>800</v>
       </c>
       <c r="K10" s="3">
+        <v>600</v>
+      </c>
+      <c r="L10" s="3">
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5500</v>
       </c>
       <c r="O12" s="3">
         <v>5000</v>
       </c>
       <c r="P12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,31 +1002,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,22 +1052,28 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>17</v>
@@ -1039,11 +1084,11 @@
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-7100</v>
       </c>
       <c r="G18" s="3">
         <v>-6500</v>
       </c>
       <c r="H18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-9600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,34 +1243,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1214,60 +1281,72 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-6800</v>
       </c>
       <c r="G21" s="3">
         <v>-6100</v>
       </c>
       <c r="H21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-9800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-10300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-9300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,58 +1383,70 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-9600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-10700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-9600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,34 +1839,40 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>-100</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -1742,60 +1881,72 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-10700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-9600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-10700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-9600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F41" s="3">
         <v>30400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>35500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>36500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>35200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>37400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>39600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>47300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>50700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>55000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>62800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>70000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2234,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
       </c>
       <c r="G43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H43" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
       </c>
       <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1000</v>
       </c>
       <c r="P43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1000</v>
       </c>
       <c r="I44" s="3">
         <v>1000</v>
       </c>
       <c r="J44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1200</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
       </c>
       <c r="L45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
+        <v>900</v>
+      </c>
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F46" s="3">
         <v>32700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>37400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>38600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>37500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>40100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>42300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>46800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>50300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>53300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>57900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>65100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>71900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2684,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2466,10 +2705,10 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2487,7 +2726,7 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F54" s="3">
         <v>37800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>43500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>40600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>39700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>42600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>45100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>49800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>53600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>56900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>61700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>69200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>76100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2800</v>
       </c>
       <c r="I59" s="3">
         <v>2800</v>
       </c>
       <c r="J59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,43 +3124,49 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>800</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>800</v>
+      </c>
+      <c r="R62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-279500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-276700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-273400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-267100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-260800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-253800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-247400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-241500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-234100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-226700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-218900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-209400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-199300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-188700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F76" s="3">
         <v>31100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>36100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>36300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>35700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>38900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>41400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>44600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>48600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>52100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>57300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>62400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>70900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-10700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-9600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +4023,27 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,41 +4406,47 @@
       <c r="E91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4110,28 +4569,34 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,127 +4824,145 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2900</v>
       </c>
       <c r="J100" s="3">
         <v>2100</v>
       </c>
       <c r="K100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>26000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>18300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,63 +751,66 @@
         <v>17</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>700</v>
       </c>
       <c r="I8" s="3">
+        <v>700</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -818,78 +825,84 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
       </c>
       <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1000</v>
       </c>
       <c r="R10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4000</v>
       </c>
       <c r="M12" s="3">
         <v>4000</v>
       </c>
       <c r="N12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,22 +1025,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1067,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
+      <c r="H15" s="3">
+        <v>200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>17</v>
@@ -1090,8 +1113,8 @@
       <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-7600</v>
       </c>
       <c r="L18" s="3">
         <v>-7600</v>
       </c>
       <c r="M18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1254,28 +1288,28 @@
         <v>17</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1287,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>17</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-6100</v>
       </c>
       <c r="G21" s="3">
         <v>-6100</v>
       </c>
       <c r="H21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-7100</v>
       </c>
       <c r="L21" s="3">
         <v>-7100</v>
       </c>
       <c r="M21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-7500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1389,64 +1429,70 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>17</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-6300</v>
       </c>
       <c r="G23" s="3">
         <v>-6300</v>
       </c>
       <c r="H23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-7400</v>
       </c>
       <c r="L23" s="3">
         <v>-7400</v>
       </c>
       <c r="M23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-6300</v>
       </c>
       <c r="G26" s="3">
         <v>-6300</v>
       </c>
       <c r="H26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-7400</v>
       </c>
       <c r="L26" s="3">
         <v>-7400</v>
       </c>
       <c r="M26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-6300</v>
       </c>
       <c r="G27" s="3">
         <v>-6300</v>
       </c>
       <c r="H27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-7400</v>
       </c>
       <c r="L27" s="3">
         <v>-7400</v>
       </c>
       <c r="M27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,28 +1924,28 @@
         <v>17</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -1887,7 +1957,7 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-6300</v>
       </c>
       <c r="G33" s="3">
         <v>-6300</v>
       </c>
       <c r="H33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-7400</v>
       </c>
       <c r="L33" s="3">
         <v>-7400</v>
       </c>
       <c r="M33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-6300</v>
       </c>
       <c r="G35" s="3">
         <v>-6300</v>
       </c>
       <c r="H35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-7400</v>
       </c>
       <c r="L35" s="3">
         <v>-7400</v>
       </c>
       <c r="M35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E41" s="3">
         <v>27400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>70000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,10 +2342,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
@@ -2261,57 +2354,60 @@
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>1000</v>
@@ -2320,128 +2416,137 @@
         <v>1000</v>
       </c>
       <c r="L44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>500</v>
       </c>
       <c r="P44" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>900</v>
       </c>
       <c r="N45" s="3">
         <v>900</v>
       </c>
       <c r="O45" s="3">
+        <v>900</v>
+      </c>
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E46" s="3">
         <v>28300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>57900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>65100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>71900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,7 +2819,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2711,7 +2831,7 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2732,16 +2852,19 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E54" s="3">
         <v>28400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>69200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,22 +3010,23 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
@@ -2904,13 +3035,13 @@
         <v>600</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
@@ -2919,19 +3050,22 @@
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,28 +3114,31 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3000</v>
       </c>
       <c r="G59" s="3">
         <v>3000</v>
       </c>
       <c r="H59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I59" s="3">
         <v>3100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2800</v>
       </c>
       <c r="J59" s="3">
         <v>2800</v>
@@ -3010,78 +3147,84 @@
         <v>2800</v>
       </c>
       <c r="L59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,46 +3273,49 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>800</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-282200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-279500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-276700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-273400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-260800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-253800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-247400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-241500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-234100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-226700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-218900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-209400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-199300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-188700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E76" s="3">
         <v>26600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>62400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-6300</v>
       </c>
       <c r="G81" s="3">
         <v>-6300</v>
       </c>
       <c r="H81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-7400</v>
       </c>
       <c r="L81" s="3">
         <v>-7400</v>
       </c>
       <c r="M81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4046,7 +4245,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4412,24 +4633,24 @@
       <c r="G91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>17</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4437,16 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,11 +4784,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4575,28 +4805,31 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4830,43 +5076,46 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>26000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4891,78 +5140,84 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>17</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,49 +758,52 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
       </c>
       <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,14 +813,14 @@
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -828,28 +835,31 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,50 +869,53 @@
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>600</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
       </c>
       <c r="J10" s="3">
+        <v>600</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1000</v>
       </c>
       <c r="S10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>4000</v>
       </c>
       <c r="N12" s="3">
         <v>4000</v>
       </c>
       <c r="O12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,25 +1045,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>17</v>
@@ -1057,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1093,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
+      <c r="I15" s="3">
+        <v>200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-7600</v>
       </c>
       <c r="M18" s="3">
         <v>-7600</v>
       </c>
       <c r="N18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,31 +1322,31 @@
         <v>17</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1324,7 +1358,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>17</v>
       </c>
       <c r="E21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-6100</v>
       </c>
       <c r="H21" s="3">
         <v>-6100</v>
       </c>
       <c r="I21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-7100</v>
       </c>
       <c r="M21" s="3">
         <v>-7100</v>
       </c>
       <c r="N21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-7500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1432,67 +1472,73 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-6300</v>
       </c>
       <c r="H23" s="3">
         <v>-6300</v>
       </c>
       <c r="I23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-7400</v>
       </c>
       <c r="M23" s="3">
         <v>-7400</v>
       </c>
       <c r="N23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-6300</v>
       </c>
       <c r="H26" s="3">
         <v>-6300</v>
       </c>
       <c r="I26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-7400</v>
       </c>
       <c r="M26" s="3">
         <v>-7400</v>
       </c>
       <c r="N26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-6300</v>
       </c>
       <c r="H27" s="3">
         <v>-6300</v>
       </c>
       <c r="I27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-7400</v>
       </c>
       <c r="M27" s="3">
         <v>-7400</v>
       </c>
       <c r="N27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,31 +1994,31 @@
         <v>17</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -1960,7 +2030,7 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-6300</v>
       </c>
       <c r="H33" s="3">
         <v>-6300</v>
       </c>
       <c r="I33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-7400</v>
       </c>
       <c r="M33" s="3">
         <v>-7400</v>
       </c>
       <c r="N33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-6300</v>
       </c>
       <c r="H35" s="3">
         <v>-6300</v>
       </c>
       <c r="I35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-7400</v>
       </c>
       <c r="M35" s="3">
         <v>-7400</v>
       </c>
       <c r="N35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E41" s="3">
         <v>24800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>62800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>70000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,22 +2423,25 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
@@ -2357,60 +2450,63 @@
         <v>600</v>
       </c>
       <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
@@ -2419,134 +2515,143 @@
         <v>1000</v>
       </c>
       <c r="M44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
       </c>
       <c r="Q44" s="3">
+        <v>500</v>
+      </c>
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>900</v>
       </c>
       <c r="P45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E46" s="3">
         <v>25500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>38600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>65100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>71900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2834,7 +2954,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2855,16 +2975,19 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E54" s="3">
         <v>25600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>69200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,25 +3141,26 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -3038,13 +3169,13 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -3053,19 +3184,22 @@
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,31 +3251,34 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3000</v>
       </c>
       <c r="H59" s="3">
         <v>3000</v>
       </c>
       <c r="I59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J59" s="3">
         <v>3100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2800</v>
       </c>
       <c r="K59" s="3">
         <v>2800</v>
@@ -3150,81 +3287,87 @@
         <v>2800</v>
       </c>
       <c r="M59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,49 +3419,52 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
       </c>
       <c r="P62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>800</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-291200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-282200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-279500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-276700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-273400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-260800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-253800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-247400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-241500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-234100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-226700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-218900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-209400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-199300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-188700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>57300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>62400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>70900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-6300</v>
       </c>
       <c r="H81" s="3">
         <v>-6300</v>
       </c>
       <c r="I81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-7400</v>
       </c>
       <c r="M81" s="3">
         <v>-7400</v>
       </c>
       <c r="N81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4248,7 +4447,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,24 +4857,24 @@
       <c r="H91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>17</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,11 +5017,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4808,28 +5038,31 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5079,43 +5325,46 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>26000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5143,81 +5392,87 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>17</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,49 +764,52 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>700</v>
       </c>
       <c r="J8" s="3">
         <v>700</v>
       </c>
       <c r="K8" s="3">
+        <v>700</v>
+      </c>
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,14 +822,14 @@
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -838,28 +844,31 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,50 +881,53 @@
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>600</v>
       </c>
       <c r="K10" s="3">
+        <v>600</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1000</v>
       </c>
       <c r="T10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4000</v>
       </c>
       <c r="O12" s="3">
         <v>4000</v>
       </c>
       <c r="P12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>4900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,28 +1064,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>17</v>
@@ -1080,8 +1099,8 @@
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
+      <c r="J15" s="3">
+        <v>200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>17</v>
@@ -1142,8 +1164,8 @@
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-7600</v>
       </c>
       <c r="N18" s="3">
         <v>-7600</v>
       </c>
       <c r="O18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1325,31 +1358,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1361,7 +1394,7 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>17</v>
       </c>
       <c r="E21" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-6100</v>
       </c>
       <c r="I21" s="3">
         <v>-6100</v>
       </c>
       <c r="J21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-7100</v>
       </c>
       <c r="N21" s="3">
         <v>-7100</v>
       </c>
       <c r="O21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-7500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1475,70 +1514,76 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>17</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-6300</v>
       </c>
       <c r="I23" s="3">
         <v>-6300</v>
       </c>
       <c r="J23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-7400</v>
       </c>
       <c r="N23" s="3">
         <v>-7400</v>
       </c>
       <c r="O23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-6300</v>
       </c>
       <c r="I26" s="3">
         <v>-6300</v>
       </c>
       <c r="J26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-7400</v>
       </c>
       <c r="N26" s="3">
         <v>-7400</v>
       </c>
       <c r="O26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-6300</v>
       </c>
       <c r="I27" s="3">
         <v>-6300</v>
       </c>
       <c r="J27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-7400</v>
       </c>
       <c r="N27" s="3">
         <v>-7400</v>
       </c>
       <c r="O27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,31 +2066,31 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2033,7 +2102,7 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-6300</v>
       </c>
       <c r="I33" s="3">
         <v>-6300</v>
       </c>
       <c r="J33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-7400</v>
       </c>
       <c r="N33" s="3">
         <v>-7400</v>
       </c>
       <c r="O33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-6300</v>
       </c>
       <c r="I35" s="3">
         <v>-6300</v>
       </c>
       <c r="J35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-7400</v>
       </c>
       <c r="N35" s="3">
         <v>-7400</v>
       </c>
       <c r="O35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E41" s="3">
         <v>17700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>62800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>70000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
@@ -2453,37 +2545,40 @@
         <v>600</v>
       </c>
       <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,23 +2588,23 @@
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
       </c>
       <c r="K44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>1000</v>
@@ -2518,140 +2613,149 @@
         <v>1000</v>
       </c>
       <c r="N44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>500</v>
       </c>
       <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>900</v>
       </c>
       <c r="Q45" s="3">
+        <v>900</v>
+      </c>
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E46" s="3">
         <v>19500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>57900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>65100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>71900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2810,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3046,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2957,7 +3076,7 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -2978,16 +3097,19 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E54" s="3">
         <v>20600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>69200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,28 +3271,29 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
@@ -3172,13 +3302,13 @@
         <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -3187,19 +3317,22 @@
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,34 +3387,37 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3000</v>
       </c>
       <c r="I59" s="3">
         <v>3000</v>
       </c>
       <c r="J59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2800</v>
       </c>
       <c r="L59" s="3">
         <v>2800</v>
@@ -3290,84 +3426,90 @@
         <v>2800</v>
       </c>
       <c r="N59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,52 +3564,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
         <v>600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
       <c r="Q62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R62" s="3">
         <v>800</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-293700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-291200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-282200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-279500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-276700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-273400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-267100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-260800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-253800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-247400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-241500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-234100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-226700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-218900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-209400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-199300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-188700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E76" s="3">
         <v>20000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>57300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>62400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>70900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-6300</v>
       </c>
       <c r="I81" s="3">
         <v>-6300</v>
       </c>
       <c r="J81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-7400</v>
       </c>
       <c r="N81" s="3">
         <v>-7400</v>
       </c>
       <c r="O81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4450,7 +4648,7 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4860,24 +5080,24 @@
       <c r="I91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>17</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4885,16 +5105,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5231,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5020,11 +5249,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5041,28 +5270,31 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5549,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5328,43 +5573,46 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>26000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,84 +5643,90 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>17</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,49 +775,55 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,17 +839,17 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -847,28 +861,34 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,50 +904,56 @@
       <c r="G10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>600</v>
       </c>
       <c r="O10" s="3">
         <v>800</v>
       </c>
       <c r="P10" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>800</v>
+      </c>
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>5500</v>
       </c>
       <c r="T12" s="3">
         <v>5000</v>
       </c>
       <c r="U12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,34 +1101,40 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
@@ -1102,11 +1142,11 @@
       <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1126,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>17</v>
@@ -1167,11 +1213,11 @@
       <c r="O15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1257,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>10900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>10800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1273,58 +1333,64 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-7100</v>
       </c>
       <c r="L18" s="3">
         <v>-6500</v>
       </c>
       <c r="M18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-9500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-10200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-9600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1361,34 +1429,34 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1397,16 +1465,22 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1414,58 +1488,64 @@
         <v>17</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-8900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-6800</v>
       </c>
       <c r="L21" s="3">
         <v>-6100</v>
       </c>
       <c r="M21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-5600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-7100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-9800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-10300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-9300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1517,14 +1597,20 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,58 +1618,64 @@
         <v>-2500</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-10100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-10700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-9600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1798,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,58 +1813,64 @@
         <v>-2500</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-9500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-10100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-10700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-9600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,58 +1878,64 @@
         <v>-2500</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-10100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-10700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-9600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2069,34 +2209,34 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2105,16 +2245,22 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,58 +2268,64 @@
         <v>-2500</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-9500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-10100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-10700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-9600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2383,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,122 +2398,134 @@
         <v>-2500</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-9500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-10100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-10700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-9600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F41" s="3">
         <v>18800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>24800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>27400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>30400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>35500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>35200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>37400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>39600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>43700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>47300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>50700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>55000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>62800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>70000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2698,79 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
       </c>
       <c r="L43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M43" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>700</v>
       </c>
       <c r="O43" s="3">
+        <v>900</v>
+      </c>
+      <c r="P43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>600</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1000</v>
       </c>
       <c r="U43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2591,171 +2783,189 @@
       <c r="F44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1000</v>
       </c>
       <c r="N44" s="3">
         <v>1000</v>
       </c>
       <c r="O44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1200</v>
       </c>
       <c r="P45" s="3">
         <v>900</v>
       </c>
       <c r="Q45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
+        <v>900</v>
+      </c>
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F46" s="3">
         <v>20100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>19500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>25500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>28300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>31100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>32700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>37400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>38600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>37500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>40100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>42300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>46800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>50300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>53300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>57900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>65100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>71900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +3023,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,28 +3283,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
       <c r="F52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3079,10 +3319,10 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3100,7 +3340,7 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F54" s="3">
         <v>21600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>25600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>28400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>37800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>43500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>40600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>39700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>42600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>45100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>49800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>53600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>56900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>61700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>69200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>76100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3658,14 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,63 +3673,69 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2800</v>
       </c>
       <c r="N59" s="3">
         <v>2800</v>
       </c>
       <c r="O59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -3464,52 +3744,58 @@
         <v>800</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,16 +3853,22 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>17</v>
@@ -3584,41 +3876,41 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>800</v>
       </c>
       <c r="T62" s="3">
         <v>800</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>800</v>
+      </c>
+      <c r="W62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,13 +4113,19 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -3818,52 +4134,58 @@
         <v>800</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-298800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-296300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-293700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-291200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-282200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-279500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-276700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-273400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-267100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-260800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-253800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-247400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-241500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-234100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-226700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-218900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-209400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-199300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-188700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F76" s="3">
         <v>20800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>24800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>26600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>31100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>36100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>36300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>35700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>38900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>44600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>48600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>52100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>57300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>62400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>70900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4853,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,58 +4938,64 @@
         <v>-2500</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-9500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-10100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-10700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-9600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4639,22 +5037,22 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-10700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-7200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-7100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,16 +5497,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>17</v>
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>17</v>
@@ -5083,41 +5525,47 @@
       <c r="J91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,32 +5688,38 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5273,28 +5733,34 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,20 +6038,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5576,43 +6068,49 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
-      </c>
-      <c r="M100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>2900</v>
       </c>
       <c r="O100" s="3">
         <v>2100</v>
       </c>
       <c r="P100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R100" s="3">
         <v>3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>26000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5646,87 +6144,99 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="T101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-7800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-7200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>18300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -781,49 +785,52 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>700</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,14 +852,14 @@
       <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -867,28 +874,31 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
       </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -910,50 +920,53 @@
       <c r="I10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>600</v>
       </c>
       <c r="M10" s="3">
         <v>600</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1000</v>
       </c>
       <c r="W10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,64 +1000,67 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>4000</v>
       </c>
       <c r="R12" s="3">
         <v>4000</v>
       </c>
       <c r="S12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T12" s="3">
         <v>4900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,37 +1124,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>17</v>
@@ -1148,8 +1168,8 @@
       <c r="O14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>17</v>
+      <c r="M15" s="3">
+        <v>200</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>17</v>
@@ -1219,8 +1242,8 @@
       <c r="Q15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="E17" s="3">
         <v>2600</v>
       </c>
       <c r="F17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-7600</v>
       </c>
       <c r="Q18" s="3">
         <v>-7600</v>
       </c>
       <c r="R18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-7900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,16 +1447,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1435,31 +1469,31 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1471,7 +1505,7 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-6100</v>
       </c>
       <c r="L21" s="3">
         <v>-6100</v>
       </c>
       <c r="M21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-7100</v>
       </c>
       <c r="Q21" s="3">
         <v>-7100</v>
       </c>
       <c r="R21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-7500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-9300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1603,79 +1643,85 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>17</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-6300</v>
       </c>
       <c r="L23" s="3">
         <v>-6300</v>
       </c>
       <c r="M23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-7400</v>
       </c>
       <c r="Q23" s="3">
         <v>-7400</v>
       </c>
       <c r="R23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-7800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-6300</v>
       </c>
       <c r="L26" s="3">
         <v>-6300</v>
       </c>
       <c r="M26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-7400</v>
       </c>
       <c r="Q26" s="3">
         <v>-7400</v>
       </c>
       <c r="R26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-6300</v>
       </c>
       <c r="L27" s="3">
         <v>-6300</v>
       </c>
       <c r="M27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-7400</v>
       </c>
       <c r="Q27" s="3">
         <v>-7400</v>
       </c>
       <c r="R27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-7800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,16 +2261,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2215,31 +2285,31 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2251,7 +2321,7 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-6300</v>
       </c>
       <c r="L33" s="3">
         <v>-6300</v>
       </c>
       <c r="M33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-7400</v>
       </c>
       <c r="Q33" s="3">
         <v>-7400</v>
       </c>
       <c r="R33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-7800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-6300</v>
       </c>
       <c r="L35" s="3">
         <v>-6300</v>
       </c>
       <c r="M35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-7400</v>
       </c>
       <c r="Q35" s="3">
         <v>-7400</v>
       </c>
       <c r="R35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-7800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E41" s="3">
         <v>36000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>55000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>62800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>70000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,16 +2794,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2722,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>600</v>
@@ -2740,54 +2833,57 @@
         <v>600</v>
       </c>
       <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>17</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2796,16 +2892,16 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>500</v>
       </c>
       <c r="N44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>1000</v>
@@ -2814,158 +2910,167 @@
         <v>1000</v>
       </c>
       <c r="Q44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>500</v>
       </c>
       <c r="T44" s="3">
         <v>500</v>
       </c>
       <c r="U44" s="3">
+        <v>500</v>
+      </c>
+      <c r="V44" s="3">
         <v>600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>900</v>
       </c>
       <c r="S45" s="3">
         <v>900</v>
       </c>
       <c r="T45" s="3">
+        <v>900</v>
+      </c>
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E46" s="3">
         <v>36700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>53300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>57900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>65100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>71900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,64 +3146,67 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,31 +3406,34 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
       <c r="F52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3325,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3346,16 +3466,19 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E54" s="3">
         <v>38300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>49800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>69200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,37 +3664,38 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
@@ -3573,13 +3704,13 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -3588,19 +3719,22 @@
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,13 +3798,16 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
@@ -3679,28 +3816,28 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3000</v>
       </c>
       <c r="L59" s="3">
         <v>3000</v>
       </c>
       <c r="M59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N59" s="3">
         <v>3100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2800</v>
       </c>
       <c r="O59" s="3">
         <v>2800</v>
@@ -3709,93 +3846,99 @@
         <v>2800</v>
       </c>
       <c r="Q59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,25 +4002,28 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>17</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>17</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3886,34 +4032,34 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
       </c>
       <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
         <v>600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>700</v>
       </c>
       <c r="S62" s="3">
         <v>700</v>
       </c>
       <c r="T62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U62" s="3">
         <v>800</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-302300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-298800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-296300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-293700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-291200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-282200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-279500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-276700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-273400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-267100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-260800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-253800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-247400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-241500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-234100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-226700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-218900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-209400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-199300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-188700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E76" s="3">
         <v>37300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>57300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>62400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>70900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-6300</v>
       </c>
       <c r="L81" s="3">
         <v>-6300</v>
       </c>
       <c r="M81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-7400</v>
       </c>
       <c r="Q81" s="3">
         <v>-7400</v>
       </c>
       <c r="R81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-7800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5043,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -5055,7 +5254,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>17</v>
@@ -5531,24 +5752,24 @@
       <c r="L91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>17</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5556,16 +5777,19 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,23 +5921,26 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5718,11 +5948,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5739,28 +5969,31 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,23 +6287,26 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6074,43 +6320,46 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>26000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6150,93 +6399,99 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>17</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,8 +775,8 @@
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -788,49 +791,52 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>700</v>
       </c>
       <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,14 +861,14 @@
       <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -877,28 +883,31 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>300</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W9" s="3">
         <v>200</v>
       </c>
       <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -923,50 +932,53 @@
       <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>600</v>
       </c>
       <c r="N10" s="3">
         <v>600</v>
       </c>
       <c r="O10" s="3">
+        <v>600</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1000</v>
       </c>
       <c r="X10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>4000</v>
       </c>
       <c r="S12" s="3">
         <v>4000</v>
       </c>
       <c r="T12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U12" s="3">
         <v>4900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1138,30 +1157,30 @@
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1171,8 +1190,8 @@
       <c r="P14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1222,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>17</v>
+      <c r="N15" s="3">
+        <v>200</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>17</v>
@@ -1245,8 +1267,8 @@
       <c r="R15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,67 +1321,70 @@
         <v>3500</v>
       </c>
       <c r="E17" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="F17" s="3">
         <v>2600</v>
       </c>
       <c r="G17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1365,65 +1394,68 @@
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-7600</v>
       </c>
       <c r="R18" s="3">
         <v>-7600</v>
       </c>
       <c r="S18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="T18" s="3">
         <v>-7900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1459,8 +1492,8 @@
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1472,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1508,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,65 +1563,68 @@
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-6100</v>
       </c>
       <c r="M21" s="3">
         <v>-6100</v>
       </c>
       <c r="N21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-6800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-7100</v>
       </c>
       <c r="R21" s="3">
         <v>-7100</v>
       </c>
       <c r="S21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-7500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1646,14 +1685,17 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>17</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,67 +1703,70 @@
         <v>-3500</v>
       </c>
       <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-6300</v>
       </c>
       <c r="M23" s="3">
         <v>-6300</v>
       </c>
       <c r="N23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-7400</v>
       </c>
       <c r="R23" s="3">
         <v>-7400</v>
       </c>
       <c r="S23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,67 +1916,70 @@
         <v>-3500</v>
       </c>
       <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-6300</v>
       </c>
       <c r="M26" s="3">
         <v>-6300</v>
       </c>
       <c r="N26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-7400</v>
       </c>
       <c r="R26" s="3">
         <v>-7400</v>
       </c>
       <c r="S26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +1987,70 @@
         <v>-3500</v>
       </c>
       <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-6300</v>
       </c>
       <c r="M27" s="3">
         <v>-6300</v>
       </c>
       <c r="N27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-7400</v>
       </c>
       <c r="R27" s="3">
         <v>-7400</v>
       </c>
       <c r="S27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2275,8 +2344,8 @@
       <c r="E32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2288,31 +2357,31 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2324,7 +2393,7 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2413,70 @@
         <v>-3500</v>
       </c>
       <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-6300</v>
       </c>
       <c r="M33" s="3">
         <v>-6300</v>
       </c>
       <c r="N33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-7400</v>
       </c>
       <c r="R33" s="3">
         <v>-7400</v>
       </c>
       <c r="S33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-7800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2555,146 @@
         <v>-3500</v>
       </c>
       <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-6300</v>
       </c>
       <c r="M35" s="3">
         <v>-6300</v>
       </c>
       <c r="N35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-7400</v>
       </c>
       <c r="R35" s="3">
         <v>-7400</v>
       </c>
       <c r="S35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-7800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E41" s="3">
         <v>33800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>47300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>50700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>55000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>62800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>70000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2808,8 +2900,8 @@
       <c r="E43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2818,16 +2910,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
@@ -2836,37 +2928,40 @@
         <v>600</v>
       </c>
       <c r="O43" s="3">
+        <v>600</v>
+      </c>
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2895,16 +2990,16 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>1000</v>
@@ -2913,164 +3008,173 @@
         <v>1000</v>
       </c>
       <c r="R44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S44" s="3">
         <v>800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>500</v>
       </c>
       <c r="V44" s="3">
+        <v>500</v>
+      </c>
+      <c r="W44" s="3">
         <v>600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>900</v>
       </c>
       <c r="T45" s="3">
         <v>900</v>
       </c>
       <c r="U45" s="3">
+        <v>900</v>
+      </c>
+      <c r="V45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E46" s="3">
         <v>34300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>50300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>53300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>57900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>65100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>71900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,76 +3241,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>2900</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,25 +3537,25 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
       </c>
       <c r="G52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3448,7 +3567,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3469,16 +3588,19 @@
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E54" s="3">
         <v>35900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>69200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,40 +3794,41 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
@@ -3707,13 +3837,13 @@
         <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
@@ -3722,19 +3852,22 @@
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,16 +3934,19 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -3819,28 +3955,28 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3000</v>
       </c>
       <c r="M59" s="3">
         <v>3000</v>
       </c>
       <c r="N59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O59" s="3">
         <v>3100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2800</v>
       </c>
       <c r="P59" s="3">
         <v>2800</v>
@@ -3849,96 +3985,102 @@
         <v>2800</v>
       </c>
       <c r="R59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,64 +4147,67 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
       </c>
       <c r="P62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
       <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
         <v>600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>700</v>
       </c>
       <c r="T62" s="3">
         <v>700</v>
       </c>
       <c r="U62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V62" s="3">
         <v>800</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-305800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-302300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-298800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-296300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-293700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-291200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-282200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-279500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-276700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-273400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-267100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-260800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-253800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-247400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-241500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-234100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-226700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-218900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-209400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-199300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-188700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E76" s="3">
         <v>34200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>57300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>62400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>70900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5327,70 @@
         <v>-3500</v>
       </c>
       <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-6300</v>
       </c>
       <c r="M81" s="3">
         <v>-6300</v>
       </c>
       <c r="N81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-7400</v>
       </c>
       <c r="R81" s="3">
         <v>-7400</v>
       </c>
       <c r="S81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-7800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5257,7 +5455,7 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,23 +5939,24 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>17</v>
       </c>
@@ -5755,24 +5975,24 @@
       <c r="M91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>17</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5780,16 +6000,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,26 +6150,29 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5951,11 +6180,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5972,28 +6201,31 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,17 +6544,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6323,43 +6568,46 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>26000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6402,96 +6650,102 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>17</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,132 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
+      <c r="E8" s="3">
+        <v>1500</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -794,49 +802,55 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,17 +878,17 @@
       <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -886,28 +900,34 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,50 +955,56 @@
       <c r="K10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>600</v>
       </c>
       <c r="S10" s="3">
         <v>800</v>
       </c>
       <c r="T10" s="3">
+        <v>600</v>
+      </c>
+      <c r="U10" s="3">
+        <v>800</v>
+      </c>
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>4000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>4900</v>
-      </c>
-      <c r="V12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>5500</v>
       </c>
       <c r="X12" s="3">
         <v>5000</v>
       </c>
       <c r="Y12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,58 +1180,64 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1217,13 +1257,19 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1247,20 +1293,20 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1270,11 +1316,11 @@
       <c r="S15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>10900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>11200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>11500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>10800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
+      <c r="E18" s="3">
+        <v>-1900</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-7100</v>
       </c>
       <c r="P18" s="3">
         <v>-6500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-7600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-7600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-7900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-9500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-10200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-10700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,25 +1547,27 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1508,34 +1576,34 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
@@ -1544,87 +1612,99 @@
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
+      <c r="E21" s="3">
+        <v>-1900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-6800</v>
       </c>
       <c r="P21" s="3">
         <v>-6100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-5600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-7100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-9100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-9800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-10300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1688,85 +1768,97 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2600</v>
       </c>
       <c r="H23" s="3">
         <v>-2500</v>
       </c>
       <c r="I23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-9500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-10100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-10700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2600</v>
       </c>
       <c r="H26" s="3">
         <v>-2500</v>
       </c>
       <c r="I26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-9500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-10100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-10700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2600</v>
       </c>
       <c r="H27" s="3">
         <v>-2500</v>
       </c>
       <c r="I27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-9500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-10100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-10700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,25 +2467,31 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2360,34 +2500,34 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>-100</v>
-      </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
@@ -2396,87 +2536,99 @@
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2600</v>
       </c>
       <c r="H33" s="3">
         <v>-2500</v>
       </c>
       <c r="I33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-9500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-10100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-10700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2600</v>
       </c>
       <c r="H35" s="3">
         <v>-2500</v>
       </c>
       <c r="I35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-9500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-10100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-10700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,102 +2919,110 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F41" s="3">
         <v>30300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>33800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>36000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>37400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>27400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>30500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>30400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>35500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>36500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>35200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>37400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>39600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>43700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>47300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>50700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>55000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>62800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>70000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>10600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2903,65 +3089,71 @@
       <c r="F43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
       </c>
       <c r="O43" s="3">
         <v>600</v>
       </c>
       <c r="P43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q43" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="R43" s="3">
         <v>700</v>
       </c>
       <c r="S43" s="3">
+        <v>900</v>
+      </c>
+      <c r="T43" s="3">
+        <v>700</v>
+      </c>
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>800</v>
-      </c>
-      <c r="W43" s="3">
-        <v>600</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1000</v>
       </c>
       <c r="Y43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2993,188 +3185,206 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1000</v>
       </c>
       <c r="R44" s="3">
         <v>1000</v>
       </c>
       <c r="S44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U44" s="3">
         <v>800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>900</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1200</v>
       </c>
       <c r="T45" s="3">
         <v>900</v>
       </c>
       <c r="U45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
+        <v>900</v>
+      </c>
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F46" s="3">
         <v>31200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>34300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>36700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>38400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>20100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>19500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>25500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>28300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>31100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>32700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>37400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>38600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>37500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>40100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>42300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>46800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>50300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>53300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>57900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>65100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>71900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,79 +3454,91 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,40 +3762,46 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
       </c>
       <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -3570,10 +3810,10 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -3591,7 +3831,7 @@
         <v>300</v>
       </c>
       <c r="W52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F54" s="3">
         <v>35100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>35900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>38300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>39900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>20600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>31300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>37800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>43500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>40600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>39700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>42600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>45100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>49800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>53600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>56900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>61700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>69200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>76100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +4055,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,96 +4205,108 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2800</v>
       </c>
       <c r="R59" s="3">
         <v>2800</v>
       </c>
       <c r="S59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
@@ -4035,52 +4315,58 @@
         <v>800</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,28 +4436,34 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>17</v>
@@ -4179,41 +4471,41 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>800</v>
-      </c>
-      <c r="W62" s="3">
-        <v>800</v>
       </c>
       <c r="X62" s="3">
         <v>800</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,25 +4744,31 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
@@ -4461,52 +4777,58 @@
         <v>800</v>
       </c>
       <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-311000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-307700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-305800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-302300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-298800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-296300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-293700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-291200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-282200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-279500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-276700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-273400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-267100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-260800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-253800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-247400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-241500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-234100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-226700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-218900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-209400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-199300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-188700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F76" s="3">
         <v>31300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>34200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>37300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>39200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>20000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>29000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>31100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>36100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>36300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>35700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>38900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>41400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>44600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>48600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>52100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>57300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>62400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>70900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2600</v>
       </c>
       <c r="H81" s="3">
         <v>-2500</v>
       </c>
       <c r="I81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-9500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-10100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-10700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5812,15 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5446,22 +5844,22 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1400</v>
       </c>
       <c r="G89" s="3">
         <v>-2100</v>
       </c>
       <c r="H89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-5100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-5600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-6400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-6100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-10700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-7200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5949,20 +6391,20 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>17</v>
       </c>
@@ -5978,41 +6420,47 @@
       <c r="N91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,44 +6607,50 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6204,28 +6664,34 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,20 +7039,20 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>20800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6571,43 +7063,49 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>2900</v>
       </c>
       <c r="S100" s="3">
         <v>2100</v>
       </c>
       <c r="T100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V100" s="3">
         <v>3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>3000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>26000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6653,99 +7151,111 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>17</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>18500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-4200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-7800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-7200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>18300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -808,49 +812,52 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>700</v>
       </c>
       <c r="Q8" s="3">
         <v>700</v>
       </c>
       <c r="R8" s="3">
+        <v>700</v>
+      </c>
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,14 +891,14 @@
       <c r="M9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -906,28 +913,31 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
-      </c>
-      <c r="W9" s="3">
-        <v>300</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
       </c>
       <c r="Y9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="3">
         <v>200</v>
       </c>
       <c r="AA9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -961,50 +971,53 @@
       <c r="M10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
-      </c>
-      <c r="P10" s="3">
-        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>600</v>
       </c>
       <c r="R10" s="3">
+        <v>600</v>
+      </c>
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1000</v>
       </c>
       <c r="AA10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>600</v>
       </c>
       <c r="H12" s="3">
         <v>600</v>
       </c>
       <c r="I12" s="3">
+        <v>600</v>
+      </c>
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>17</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>4000</v>
       </c>
       <c r="V12" s="3">
         <v>4000</v>
       </c>
       <c r="W12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X12" s="3">
         <v>4900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -1206,30 +1226,30 @@
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1239,8 +1259,8 @@
       <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1263,17 +1283,20 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -1299,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>800</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>17</v>
+      <c r="Q15" s="3">
+        <v>200</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>17</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3500</v>
       </c>
       <c r="G17" s="3">
         <v>3500</v>
       </c>
       <c r="H17" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="I17" s="3">
         <v>2600</v>
       </c>
       <c r="J17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-7600</v>
       </c>
       <c r="U18" s="3">
         <v>-7600</v>
       </c>
       <c r="V18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-7900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,19 +1582,20 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>17</v>
@@ -1569,8 +1603,8 @@
       <c r="H20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1582,31 +1616,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
@@ -1618,7 +1652,7 @@
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-6100</v>
       </c>
       <c r="P21" s="3">
         <v>-6100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-6800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-7100</v>
       </c>
       <c r="U21" s="3">
         <v>-7100</v>
       </c>
       <c r="V21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-7500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-9300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1774,91 +1814,97 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>17</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3500</v>
       </c>
       <c r="G23" s="3">
         <v>-3500</v>
       </c>
       <c r="H23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-6300</v>
       </c>
       <c r="P23" s="3">
         <v>-6300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-7400</v>
       </c>
       <c r="U23" s="3">
         <v>-7400</v>
       </c>
       <c r="V23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="W23" s="3">
         <v>-7800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-3500</v>
       </c>
       <c r="G26" s="3">
         <v>-3500</v>
       </c>
       <c r="H26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-6300</v>
       </c>
       <c r="P26" s="3">
         <v>-6300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-7400</v>
       </c>
       <c r="U26" s="3">
         <v>-7400</v>
       </c>
       <c r="V26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="W26" s="3">
         <v>-7800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-3500</v>
       </c>
       <c r="G27" s="3">
         <v>-3500</v>
       </c>
       <c r="H27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-6300</v>
       </c>
       <c r="P27" s="3">
         <v>-6300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-7400</v>
       </c>
       <c r="U27" s="3">
         <v>-7400</v>
       </c>
       <c r="V27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="W27" s="3">
         <v>-7800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,19 +2540,22 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>17</v>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>17</v>
@@ -2493,8 +2563,8 @@
       <c r="H32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2506,31 +2576,31 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
@@ -2542,7 +2612,7 @@
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-3500</v>
       </c>
       <c r="G33" s="3">
         <v>-3500</v>
       </c>
       <c r="H33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-6300</v>
       </c>
       <c r="P33" s="3">
         <v>-6300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-7400</v>
       </c>
       <c r="U33" s="3">
         <v>-7400</v>
       </c>
       <c r="V33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="W33" s="3">
         <v>-7800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3500</v>
       </c>
       <c r="G35" s="3">
         <v>-3500</v>
       </c>
       <c r="H35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-6300</v>
       </c>
       <c r="P35" s="3">
         <v>-6300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-7400</v>
       </c>
       <c r="U35" s="3">
         <v>-7400</v>
       </c>
       <c r="V35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="W35" s="3">
         <v>-7800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,93 +3007,97 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>39600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>47300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>50700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>55000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>62800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>70000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>10600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>17</v>
+      <c r="E42" s="3">
+        <v>10600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -3024,8 +3114,8 @@
       <c r="J42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3075,25 +3165,28 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>17</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3105,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>600</v>
       </c>
       <c r="P43" s="3">
         <v>600</v>
@@ -3123,37 +3216,40 @@
         <v>600</v>
       </c>
       <c r="R43" s="3">
+        <v>600</v>
+      </c>
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3191,16 +3287,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>500</v>
       </c>
       <c r="R44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="S44" s="3">
         <v>1000</v>
@@ -3209,182 +3305,191 @@
         <v>1000</v>
       </c>
       <c r="U44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V44" s="3">
         <v>800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>600</v>
-      </c>
-      <c r="W44" s="3">
-        <v>500</v>
       </c>
       <c r="X44" s="3">
         <v>500</v>
       </c>
       <c r="Y44" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z44" s="3">
         <v>600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>900</v>
       </c>
       <c r="F45" s="3">
         <v>900</v>
       </c>
       <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>900</v>
       </c>
       <c r="W45" s="3">
         <v>900</v>
       </c>
       <c r="X45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E46" s="3">
         <v>26900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>38400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>46800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>50300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>53300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>57900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>65100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>71900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,76 +3577,79 @@
         <v>2700</v>
       </c>
       <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>4800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,43 +3885,46 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
       </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3816,7 +3936,7 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3837,16 +3957,19 @@
         <v>300</v>
       </c>
       <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E54" s="3">
         <v>30500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>49800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>53600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>69200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,49 +4187,50 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
@@ -4108,13 +4239,13 @@
         <v>600</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
@@ -4123,19 +4254,22 @@
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,25 +4345,28 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -4238,28 +4375,28 @@
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>3000</v>
       </c>
       <c r="P59" s="3">
         <v>3000</v>
       </c>
       <c r="Q59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R59" s="3">
         <v>3100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>2800</v>
       </c>
       <c r="S59" s="3">
         <v>2800</v>
@@ -4268,105 +4405,111 @@
         <v>2800</v>
       </c>
       <c r="U59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,23 +4585,26 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4468,47 +4614,47 @@
       <c r="J62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>600</v>
       </c>
       <c r="R62" s="3">
         <v>600</v>
       </c>
       <c r="S62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
       </c>
       <c r="U62" s="3">
+        <v>500</v>
+      </c>
+      <c r="V62" s="3">
         <v>600</v>
-      </c>
-      <c r="V62" s="3">
-        <v>700</v>
       </c>
       <c r="W62" s="3">
         <v>700</v>
       </c>
       <c r="X62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Y62" s="3">
         <v>800</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,76 +4917,79 @@
         <v>2900</v>
       </c>
       <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-314300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-311000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-307700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-305800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-302300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-298800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-296300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-293700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-291200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-282200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-279500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-276700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-273400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-267100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-260800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-253800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-247400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-241500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-234100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-226700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-218900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-209400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-199300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-188700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E76" s="3">
         <v>27700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>44600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>48600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>52100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>57300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>62400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>70900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-3500</v>
       </c>
       <c r="G81" s="3">
         <v>-3500</v>
       </c>
       <c r="H81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-6300</v>
       </c>
       <c r="P81" s="3">
         <v>-6300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-7400</v>
       </c>
       <c r="U81" s="3">
         <v>-7400</v>
       </c>
       <c r="V81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="W81" s="3">
         <v>-7800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,7 +6022,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5850,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5862,7 +6061,7 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6397,17 +6618,17 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>17</v>
       </c>
@@ -6426,24 +6647,24 @@
       <c r="P91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>17</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6451,16 +6672,19 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,35 +6840,38 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6649,11 +6879,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>700</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6670,28 +6900,31 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7045,17 +7291,17 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7069,43 +7315,46 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>26000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7157,105 +7406,111 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>17</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>18300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,145 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -815,49 +818,52 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>700</v>
       </c>
       <c r="R8" s="3">
         <v>700</v>
       </c>
       <c r="S8" s="3">
+        <v>700</v>
+      </c>
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,14 +900,14 @@
       <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -916,28 +922,31 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
-      </c>
-      <c r="X9" s="3">
-        <v>300</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
       </c>
       <c r="Z9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA9" s="3">
         <v>200</v>
       </c>
       <c r="AB9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -974,50 +983,53 @@
       <c r="N10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>600</v>
       </c>
       <c r="R10" s="3">
         <v>600</v>
       </c>
       <c r="S10" s="3">
+        <v>600</v>
+      </c>
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>600</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>1000</v>
       </c>
       <c r="AB10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>600</v>
       </c>
       <c r="I12" s="3">
         <v>600</v>
       </c>
       <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>17</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3400</v>
-      </c>
-      <c r="V12" s="3">
-        <v>4000</v>
       </c>
       <c r="W12" s="3">
         <v>4000</v>
       </c>
       <c r="X12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>4900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,11 +1236,11 @@
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -1229,30 +1248,30 @@
       <c r="I14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1262,8 +1281,8 @@
       <c r="T14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1286,19 +1305,22 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1325,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>17</v>
+      <c r="R15" s="3">
+        <v>200</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>17</v>
@@ -1348,8 +1370,8 @@
       <c r="V15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3500</v>
       </c>
       <c r="H17" s="3">
         <v>3500</v>
       </c>
       <c r="I17" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="J17" s="3">
         <v>2600</v>
       </c>
       <c r="K17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-7600</v>
       </c>
       <c r="V18" s="3">
         <v>-7600</v>
       </c>
       <c r="W18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="X18" s="3">
         <v>-7900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,22 +1615,23 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>17</v>
@@ -1606,8 +1639,8 @@
       <c r="I20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1619,31 +1652,31 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
@@ -1655,7 +1688,7 @@
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1663,88 +1696,94 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-6100</v>
       </c>
       <c r="Q21" s="3">
         <v>-6100</v>
       </c>
       <c r="R21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-6800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-7100</v>
       </c>
       <c r="V21" s="3">
         <v>-7100</v>
       </c>
       <c r="W21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-7500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1817,94 +1856,100 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>17</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
+      <c r="D23" s="3">
+        <v>-3300</v>
       </c>
       <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3500</v>
       </c>
       <c r="H23" s="3">
         <v>-3500</v>
       </c>
       <c r="I23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-6300</v>
       </c>
       <c r="Q23" s="3">
         <v>-6300</v>
       </c>
       <c r="R23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-7400</v>
       </c>
       <c r="V23" s="3">
         <v>-7400</v>
       </c>
       <c r="W23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="X23" s="3">
         <v>-7800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
+      <c r="D26" s="3">
+        <v>-3300</v>
       </c>
       <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3500</v>
       </c>
       <c r="H26" s="3">
         <v>-3500</v>
       </c>
       <c r="I26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-6300</v>
       </c>
       <c r="Q26" s="3">
         <v>-6300</v>
       </c>
       <c r="R26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-7400</v>
       </c>
       <c r="V26" s="3">
         <v>-7400</v>
       </c>
       <c r="W26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="X26" s="3">
         <v>-7800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
+      <c r="D27" s="3">
+        <v>-3300</v>
       </c>
       <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3500</v>
       </c>
       <c r="H27" s="3">
         <v>-3500</v>
       </c>
       <c r="I27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-6300</v>
       </c>
       <c r="Q27" s="3">
         <v>-6300</v>
       </c>
       <c r="R27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-7400</v>
       </c>
       <c r="V27" s="3">
         <v>-7400</v>
       </c>
       <c r="W27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="X27" s="3">
         <v>-7800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,22 +2609,25 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>17</v>
+      <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>17</v>
@@ -2566,8 +2635,8 @@
       <c r="I32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2579,31 +2648,31 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
@@ -2615,7 +2684,7 @@
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2623,88 +2692,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
+      <c r="D33" s="3">
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3500</v>
       </c>
       <c r="H33" s="3">
         <v>-3500</v>
       </c>
       <c r="I33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-6300</v>
       </c>
       <c r="Q33" s="3">
         <v>-6300</v>
       </c>
       <c r="R33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-7400</v>
       </c>
       <c r="V33" s="3">
         <v>-7400</v>
       </c>
       <c r="W33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="X33" s="3">
         <v>-7800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
+      <c r="D35" s="3">
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3500</v>
       </c>
       <c r="H35" s="3">
         <v>-3500</v>
       </c>
       <c r="I35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-6300</v>
       </c>
       <c r="Q35" s="3">
         <v>-6300</v>
       </c>
       <c r="R35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-7400</v>
       </c>
       <c r="V35" s="3">
         <v>-7400</v>
       </c>
       <c r="W35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="X35" s="3">
         <v>-7800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,99 +3093,103 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E41" s="3">
         <v>13300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>39600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>47300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>50700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>55000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>62800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>70000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10600</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
         <v>10600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>17</v>
+      <c r="F42" s="3">
+        <v>10600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>17</v>
@@ -3117,8 +3206,8 @@
       <c r="K42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3168,31 +3257,34 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3201,16 +3293,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>600</v>
       </c>
       <c r="Q43" s="3">
         <v>600</v>
@@ -3219,37 +3311,40 @@
         <v>600</v>
       </c>
       <c r="S43" s="3">
+        <v>600</v>
+      </c>
+      <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3290,16 +3385,16 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>500</v>
       </c>
       <c r="R44" s="3">
         <v>500</v>
       </c>
       <c r="S44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T44" s="3">
         <v>1000</v>
@@ -3308,188 +3403,197 @@
         <v>1000</v>
       </c>
       <c r="V44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W44" s="3">
         <v>800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>600</v>
-      </c>
-      <c r="X44" s="3">
-        <v>500</v>
       </c>
       <c r="Y44" s="3">
         <v>500</v>
       </c>
       <c r="Z44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA44" s="3">
         <v>600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>900</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>900</v>
       </c>
       <c r="X45" s="3">
         <v>900</v>
       </c>
       <c r="Y45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E46" s="3">
         <v>24400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>37500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>40100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>46800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>50300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>53300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>57900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>65100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>71900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,88 +3672,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
       </c>
       <c r="F48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,46 +4004,49 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3939,7 +4058,7 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
@@ -3960,16 +4079,19 @@
         <v>300</v>
       </c>
       <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA52" s="3">
         <v>200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E54" s="3">
         <v>27900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>49800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>53600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>69200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>76100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,52 +4317,53 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
@@ -4242,13 +4372,13 @@
         <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
@@ -4257,19 +4387,22 @@
         <v>500</v>
       </c>
       <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,28 +4481,31 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -4378,28 +4514,28 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3000</v>
       </c>
       <c r="Q59" s="3">
         <v>3000</v>
       </c>
       <c r="R59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S59" s="3">
         <v>3100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>2800</v>
       </c>
       <c r="T59" s="3">
         <v>2800</v>
@@ -4408,28 +4544,31 @@
         <v>2800</v>
       </c>
       <c r="V59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,79 +4576,82 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,26 +4730,29 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>17</v>
       </c>
@@ -4617,47 +4762,47 @@
       <c r="K62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>600</v>
       </c>
       <c r="T62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U62" s="3">
         <v>500</v>
       </c>
       <c r="V62" s="3">
+        <v>500</v>
+      </c>
+      <c r="W62" s="3">
         <v>600</v>
-      </c>
-      <c r="W62" s="3">
-        <v>700</v>
       </c>
       <c r="X62" s="3">
         <v>700</v>
       </c>
       <c r="Y62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Z62" s="3">
         <v>800</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
         <v>2900</v>
       </c>
       <c r="F66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-317500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-314300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-311000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-307700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-305800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-302300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-298800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-296300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-293700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-291200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-282200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-279500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-276700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-273400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-267100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-260800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-253800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-247400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-241500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-234100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-226700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-218900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-209400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-199300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-188700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E76" s="3">
         <v>25000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>44600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>48600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>52100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>57300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>62400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>70900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>17</v>
+      <c r="D81" s="3">
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3500</v>
       </c>
       <c r="H81" s="3">
         <v>-3500</v>
       </c>
       <c r="I81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-6300</v>
       </c>
       <c r="Q81" s="3">
         <v>-6300</v>
       </c>
       <c r="R81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-7400</v>
       </c>
       <c r="V81" s="3">
         <v>-7400</v>
       </c>
       <c r="W81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="X81" s="3">
         <v>-7800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6025,7 +6223,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -6052,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -6064,7 +6262,7 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-7100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,13 +6822,14 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -6621,17 +6841,17 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>17</v>
       </c>
@@ -6650,24 +6870,24 @@
       <c r="Q91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>17</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6675,16 +6895,19 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,38 +7069,41 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6882,11 +7111,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6903,28 +7132,31 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7294,17 +7539,17 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7318,43 +7563,46 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>26000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7409,108 +7657,114 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>17</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>18300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,28 +796,28 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -821,49 +829,55 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,17 +917,17 @@
       <c r="O9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -925,28 +939,34 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
       </c>
       <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC9" s="3">
         <v>200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -986,50 +1006,56 @@
       <c r="O10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
-      </c>
-      <c r="U10" s="3">
-        <v>800</v>
-      </c>
-      <c r="V10" s="3">
-        <v>600</v>
       </c>
       <c r="W10" s="3">
         <v>800</v>
       </c>
       <c r="X10" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>4000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>4900</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>5500</v>
       </c>
       <c r="AB12" s="3">
         <v>5000</v>
       </c>
       <c r="AC12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AE12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,56 +1279,56 @@
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1323,10 +1369,10 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1350,20 +1396,20 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1373,11 +1419,11 @@
       <c r="W15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F17" s="3">
         <v>3500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3200</v>
       </c>
       <c r="G17" s="3">
         <v>3400</v>
       </c>
       <c r="H17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>7000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>10900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>11200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>11500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>10800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-6900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-7100</v>
       </c>
       <c r="T18" s="3">
         <v>-6500</v>
       </c>
       <c r="U18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-6100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-7600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-7600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-7900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1625,10 +1693,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1636,17 +1704,17 @@
       <c r="H20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>17</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1655,34 +1723,34 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>100</v>
-      </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
@@ -1691,99 +1759,111 @@
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-8900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-6800</v>
       </c>
       <c r="T21" s="3">
         <v>-6100</v>
       </c>
       <c r="U21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-5600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-7100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-7100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1859,97 +1939,109 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2600</v>
       </c>
       <c r="L23" s="3">
         <v>-2500</v>
       </c>
       <c r="M23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-6400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-7400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-7400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2600</v>
       </c>
       <c r="L26" s="3">
         <v>-2500</v>
       </c>
       <c r="M26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-7400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-7400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2600</v>
       </c>
       <c r="L27" s="3">
         <v>-2500</v>
       </c>
       <c r="M27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-7400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2621,10 +2761,10 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>17</v>
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2632,17 +2772,17 @@
       <c r="H32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>17</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2651,34 +2791,34 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>-100</v>
-      </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
@@ -2687,99 +2827,111 @@
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2600</v>
       </c>
       <c r="L33" s="3">
         <v>-2500</v>
       </c>
       <c r="M33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-6400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-7400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-7400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2600</v>
       </c>
       <c r="L35" s="3">
         <v>-2500</v>
       </c>
       <c r="M35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-6400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-7400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-7400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,109 +3266,117 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F41" s="3">
         <v>20200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>28700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>33800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>36000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>37400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>17700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>27400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>30500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>30400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>35500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>36500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>35200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>37400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>39600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>43700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>47300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>50700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>55000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>62800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>70000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>700</v>
+      </c>
+      <c r="F42" s="3">
         <v>600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>10600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>17</v>
       </c>
@@ -3209,11 +3389,11 @@
       <c r="L42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3260,19 +3440,25 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>17</v>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>17</v>
@@ -3286,65 +3472,71 @@
       <c r="J43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>600</v>
       </c>
       <c r="S43" s="3">
         <v>600</v>
       </c>
       <c r="T43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U43" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="V43" s="3">
         <v>700</v>
       </c>
       <c r="W43" s="3">
+        <v>900</v>
+      </c>
+      <c r="X43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>800</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>600</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>1000</v>
       </c>
       <c r="AC43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3388,46 +3580,52 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1000</v>
       </c>
       <c r="V44" s="3">
         <v>1000</v>
       </c>
       <c r="W44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y44" s="3">
         <v>800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,165 +3633,177 @@
         <v>800</v>
       </c>
       <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
-      </c>
-      <c r="V45" s="3">
-        <v>900</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1200</v>
       </c>
       <c r="X45" s="3">
         <v>900</v>
       </c>
       <c r="Y45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z45" s="3">
         <v>900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F46" s="3">
         <v>21600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>26900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>29500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>31200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>34300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>36700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>38400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>25500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>28300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>31100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>32700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>37400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>38600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>37500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>40100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>42300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>46800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>50300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>53300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>57900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>65100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>71900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,82 +3900,88 @@
         <v>2500</v>
       </c>
       <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>4800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>3800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>3900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,52 +4241,58 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1200</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
       </c>
       <c r="N52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -4061,10 +4301,10 @@
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -4082,7 +4322,7 @@
         <v>300</v>
       </c>
       <c r="AA52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB52" s="3">
         <v>300</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F54" s="3">
         <v>25100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>27900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>30500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>33300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>35900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>38300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>39900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>20600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>25600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>28400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>37800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>43500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>40600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>39700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>42600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>45100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>49800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>53600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>56900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>61700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>69200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>76100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>600</v>
       </c>
       <c r="U57" s="3">
+        <v>600</v>
+      </c>
+      <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>500</v>
       </c>
       <c r="Y57" s="3">
         <v>500</v>
       </c>
       <c r="Z57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,120 +4752,132 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2800</v>
       </c>
       <c r="V59" s="3">
         <v>2800</v>
       </c>
       <c r="W59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Y59" s="3">
         <v>4200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>3100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>3700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
@@ -4606,52 +4886,58 @@
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>3700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>6000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>4400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,40 +5019,46 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>17</v>
@@ -4774,41 +5066,41 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>3600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>700</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>800</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>800</v>
       </c>
       <c r="AB62" s="3">
         <v>800</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,37 +5375,43 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
@@ -5104,52 +5420,58 @@
         <v>800</v>
       </c>
       <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-325000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-317500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-314300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-311000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-307700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-305800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-302300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-298800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-296300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-293700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-291200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-282200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-279500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-276700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-273400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-267100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-260800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-253800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-247400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-241500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-234100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-226700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-218900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-209400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-199300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-188700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F76" s="3">
         <v>22300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>30200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>31300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>34200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>39200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>20000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>24800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>29000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>31100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>36100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>36300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>35700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>38900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>41400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>44600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>48600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>52100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>57300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>62400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>70900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2600</v>
       </c>
       <c r="L81" s="3">
         <v>-2500</v>
       </c>
       <c r="M81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-6400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-7400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-7400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6226,10 +6624,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -6253,22 +6651,22 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1400</v>
       </c>
       <c r="K89" s="3">
         <v>-2100</v>
       </c>
       <c r="L89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-5100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-7000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-5600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-7100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6832,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6844,20 +7286,20 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>17</v>
       </c>
@@ -6873,41 +7315,47 @@
       <c r="R91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,56 +7526,62 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>10000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-10700</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -7135,28 +7595,34 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,13 +8004,19 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7542,20 +8034,20 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>20800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7566,43 +8058,49 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
-      </c>
-      <c r="U100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>2900</v>
       </c>
       <c r="W100" s="3">
         <v>2100</v>
       </c>
       <c r="X100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>3100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>2000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>3000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>26000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7660,111 +8158,123 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>17</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>18500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-4100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>18300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>ONVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,166 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -835,49 +839,52 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
-      </c>
-      <c r="T8" s="3">
-        <v>700</v>
       </c>
       <c r="U8" s="3">
         <v>700</v>
       </c>
       <c r="V8" s="3">
+        <v>700</v>
+      </c>
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,14 +930,14 @@
       <c r="Q9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -945,28 +952,31 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>200</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>300</v>
       </c>
       <c r="AB9" s="3">
         <v>300</v>
       </c>
       <c r="AC9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD9" s="3">
         <v>200</v>
       </c>
       <c r="AE9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1012,50 +1022,53 @@
       <c r="Q10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
-      </c>
-      <c r="T10" s="3">
-        <v>600</v>
       </c>
       <c r="U10" s="3">
         <v>600</v>
       </c>
       <c r="V10" s="3">
+        <v>600</v>
+      </c>
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>600</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>1000</v>
       </c>
       <c r="AE10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>600</v>
       </c>
       <c r="L12" s="3">
         <v>600</v>
       </c>
       <c r="M12" s="3">
+        <v>600</v>
+      </c>
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>17</v>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3400</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>4000</v>
       </c>
       <c r="Z12" s="3">
         <v>4000</v>
       </c>
       <c r="AA12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB12" s="3">
         <v>4900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>5000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>5500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>5000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,11 +1305,11 @@
       <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
@@ -1297,30 +1317,30 @@
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1330,8 +1350,8 @@
       <c r="W14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1398,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1402,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>800</v>
-      </c>
-      <c r="S15" s="3">
-        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>17</v>
+      <c r="U15" s="3">
+        <v>200</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>17</v>
@@ -1425,8 +1448,8 @@
       <c r="Y15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3500</v>
       </c>
       <c r="K17" s="3">
         <v>3500</v>
       </c>
       <c r="L17" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="M17" s="3">
         <v>2600</v>
       </c>
       <c r="N17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>10800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-7600</v>
       </c>
       <c r="Y18" s="3">
         <v>-7600</v>
       </c>
       <c r="Z18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-10200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-9500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,31 +1717,32 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>17</v>
@@ -1716,8 +1750,8 @@
       <c r="L20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1729,31 +1763,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>200</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
@@ -1765,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-6100</v>
       </c>
       <c r="T21" s="3">
         <v>-6100</v>
       </c>
       <c r="U21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-6800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5600</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-7100</v>
       </c>
       <c r="Y21" s="3">
         <v>-7100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-9100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-9800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-10300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-9300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1945,14 +1985,17 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>17</v>
+      <c r="AD22" s="3">
+        <v>0</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1960,88 +2003,91 @@
         <v>-4000</v>
       </c>
       <c r="E23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3300</v>
       </c>
       <c r="G23" s="3">
         <v>-3300</v>
       </c>
       <c r="H23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3500</v>
       </c>
       <c r="K23" s="3">
         <v>-3500</v>
       </c>
       <c r="L23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-6300</v>
       </c>
       <c r="T23" s="3">
         <v>-6300</v>
       </c>
       <c r="U23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5800</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-7400</v>
       </c>
       <c r="Y23" s="3">
         <v>-7400</v>
       </c>
       <c r="Z23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,88 +2279,91 @@
         <v>-4000</v>
       </c>
       <c r="E26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-3300</v>
       </c>
       <c r="G26" s="3">
         <v>-3300</v>
       </c>
       <c r="H26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3500</v>
       </c>
       <c r="K26" s="3">
         <v>-3500</v>
       </c>
       <c r="L26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-6300</v>
       </c>
       <c r="T26" s="3">
         <v>-6300</v>
       </c>
       <c r="U26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-7000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5800</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-7400</v>
       </c>
       <c r="Y26" s="3">
         <v>-7400</v>
       </c>
       <c r="Z26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2316,88 +2371,91 @@
         <v>-4000</v>
       </c>
       <c r="E27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-3300</v>
       </c>
       <c r="G27" s="3">
         <v>-3300</v>
       </c>
       <c r="H27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3500</v>
       </c>
       <c r="K27" s="3">
         <v>-3500</v>
       </c>
       <c r="L27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-6300</v>
       </c>
       <c r="T27" s="3">
         <v>-6300</v>
       </c>
       <c r="U27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5800</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-7400</v>
       </c>
       <c r="Y27" s="3">
         <v>-7400</v>
       </c>
       <c r="Z27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,31 +2819,34 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>17</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>17</v>
@@ -2784,8 +2854,8 @@
       <c r="L32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2797,31 +2867,31 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-200</v>
       </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
@@ -2833,7 +2903,7 @@
         <v>-100</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
@@ -2841,8 +2911,11 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2850,88 +2923,91 @@
         <v>-4000</v>
       </c>
       <c r="E33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-3300</v>
       </c>
       <c r="G33" s="3">
         <v>-3300</v>
       </c>
       <c r="H33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3500</v>
       </c>
       <c r="K33" s="3">
         <v>-3500</v>
       </c>
       <c r="L33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-6300</v>
       </c>
       <c r="T33" s="3">
         <v>-6300</v>
       </c>
       <c r="U33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5800</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-7400</v>
       </c>
       <c r="Y33" s="3">
         <v>-7400</v>
       </c>
       <c r="Z33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3028,182 +3107,188 @@
         <v>-4000</v>
       </c>
       <c r="E35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3300</v>
       </c>
       <c r="G35" s="3">
         <v>-3300</v>
       </c>
       <c r="H35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3500</v>
       </c>
       <c r="K35" s="3">
         <v>-3500</v>
       </c>
       <c r="L35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-6300</v>
       </c>
       <c r="T35" s="3">
         <v>-6300</v>
       </c>
       <c r="U35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5800</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-7400</v>
       </c>
       <c r="Y35" s="3">
         <v>-7400</v>
       </c>
       <c r="Z35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
         <v>10800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>36500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>39600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>43700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>47300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>50700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>55000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>62800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>70000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3366,19 +3456,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>600</v>
-      </c>
-      <c r="G42" s="3">
-        <v>10600</v>
       </c>
       <c r="H42" s="3">
         <v>10600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>17</v>
+      <c r="I42" s="3">
+        <v>10600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>17</v>
@@ -3395,8 +3485,8 @@
       <c r="N42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,14 +3548,14 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3478,8 +3571,8 @@
       <c r="L43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3488,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>600</v>
       </c>
       <c r="T43" s="3">
         <v>600</v>
@@ -3506,37 +3599,40 @@
         <v>600</v>
       </c>
       <c r="V43" s="3">
+        <v>600</v>
+      </c>
+      <c r="W43" s="3">
         <v>700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3586,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>500</v>
       </c>
       <c r="V44" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="W44" s="3">
         <v>1000</v>
@@ -3604,206 +3700,215 @@
         <v>1000</v>
       </c>
       <c r="Y44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z44" s="3">
         <v>800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>600</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>500</v>
       </c>
       <c r="AB44" s="3">
         <v>500</v>
       </c>
       <c r="AC44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD44" s="3">
         <v>600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>900</v>
       </c>
       <c r="J45" s="3">
         <v>900</v>
       </c>
       <c r="K45" s="3">
+        <v>900</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>900</v>
       </c>
       <c r="AA45" s="3">
         <v>900</v>
       </c>
       <c r="AB45" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC45" s="3">
         <v>1700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>37400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>37500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>40100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>46800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>50300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>53300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>57900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>65100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>71900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,97 +3996,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2700</v>
       </c>
       <c r="H48" s="3">
         <v>2700</v>
       </c>
       <c r="I48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>4800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4256,46 +4376,46 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
       <c r="L52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
       </c>
       <c r="N52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
@@ -4307,7 +4427,7 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
@@ -4328,16 +4448,19 @@
         <v>300</v>
       </c>
       <c r="AC52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD52" s="3">
         <v>200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E54" s="3">
         <v>14800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>42600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>45100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>49800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>53600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>56900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>61700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>69200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>76100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,61 +4710,62 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
@@ -4643,13 +4774,13 @@
         <v>600</v>
       </c>
       <c r="W57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
       <c r="Y57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>500</v>
@@ -4658,19 +4789,22 @@
         <v>500</v>
       </c>
       <c r="AB57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,37 +4892,40 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -4797,28 +4934,28 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>3000</v>
       </c>
       <c r="T59" s="3">
         <v>3000</v>
       </c>
       <c r="U59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V59" s="3">
         <v>3100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>2800</v>
       </c>
       <c r="W59" s="3">
         <v>2800</v>
@@ -4827,117 +4964,123 @@
         <v>2800</v>
       </c>
       <c r="Y59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z59" s="3">
         <v>4200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1400</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,35 +5168,38 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>17</v>
       </c>
@@ -5063,47 +5209,47 @@
       <c r="N62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>3600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3800</v>
-      </c>
-      <c r="U62" s="3">
-        <v>600</v>
       </c>
       <c r="V62" s="3">
         <v>600</v>
       </c>
       <c r="W62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X62" s="3">
         <v>500</v>
       </c>
       <c r="Y62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z62" s="3">
         <v>600</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>700</v>
       </c>
       <c r="AA62" s="3">
         <v>700</v>
       </c>
       <c r="AB62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AC62" s="3">
         <v>800</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2900</v>
       </c>
       <c r="H66" s="3">
         <v>2900</v>
       </c>
       <c r="I66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-329000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-325000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-317500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-314300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-311000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-307700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-305800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-302300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-298800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-296300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-293700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-291200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-282200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-279500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-276700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-273400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-267100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-260800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-253800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-247400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-241500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-234100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-226700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-218900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-209400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-199300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-188700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E76" s="3">
         <v>11800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>44600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>48600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>52100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>57300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>62400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>70900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6496,88 +6691,91 @@
         <v>-4000</v>
       </c>
       <c r="E81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-3300</v>
       </c>
       <c r="G81" s="3">
         <v>-3300</v>
       </c>
       <c r="H81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3500</v>
       </c>
       <c r="K81" s="3">
         <v>-3500</v>
       </c>
       <c r="L81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-6300</v>
       </c>
       <c r="T81" s="3">
         <v>-6300</v>
       </c>
       <c r="U81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5800</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-7400</v>
       </c>
       <c r="Y81" s="3">
         <v>-7400</v>
       </c>
       <c r="Z81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-9500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6630,7 +6829,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6657,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -6669,7 +6868,7 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-7200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-7100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7274,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -7292,17 +7513,17 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>17</v>
       </c>
@@ -7321,24 +7542,24 @@
       <c r="T91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>17</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
@@ -7346,16 +7567,19 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,47 +7759,50 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7580,11 +7810,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -7601,28 +7831,31 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,16 +8253,19 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -8040,17 +8286,17 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -8064,43 +8310,46 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>4900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>26000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8164,117 +8413,123 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>17</v>
+      <c r="AA101" s="3">
+        <v>0</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
+      <c r="AC101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-      <c r="AE101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-7200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>18300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1800</v>
       </c>
     </row>
